--- a/data/data_dem.xlsx
+++ b/data/data_dem.xlsx
@@ -9,20 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8910" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8910" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="barchart" sheetId="3" r:id="rId3"/>
     <sheet name="winner" sheetId="4" r:id="rId4"/>
+    <sheet name="Tabelle3" sheetId="5" r:id="rId5"/>
+    <sheet name="Tabelle4" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="63">
   <si>
     <t>Percent</t>
   </si>
@@ -201,7 +203,16 @@
     <t>sanders_delegates</t>
   </si>
   <si>
-    <t>#</t>
+    <t>#D9D9DA</t>
+  </si>
+  <si>
+    <t>#202C55</t>
+  </si>
+  <si>
+    <t>#542145</t>
+  </si>
+  <si>
+    <t>colour</t>
   </si>
 </sst>
 </file>
@@ -3238,8 +3249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G51" sqref="A1:G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3393,6 +3404,1625 @@
       <c r="F3" s="4">
         <v>0</v>
       </c>
+      <c r="G3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="4"/>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="4"/>
+      <c r="AL3" s="4"/>
+      <c r="AM3" s="4"/>
+      <c r="AN3" s="4"/>
+      <c r="AO3" s="4"/>
+      <c r="AP3" s="4"/>
+      <c r="AQ3" s="4"/>
+      <c r="AR3" s="4"/>
+      <c r="AS3" s="4"/>
+      <c r="AT3" s="4"/>
+      <c r="AU3" s="4"/>
+      <c r="AV3" s="4"/>
+      <c r="AW3" s="4"/>
+      <c r="AX3" s="4"/>
+      <c r="AY3" s="4"/>
+    </row>
+    <row r="4" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3">
+        <v>19</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="4"/>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="4"/>
+      <c r="AN4" s="4"/>
+      <c r="AO4" s="4"/>
+      <c r="AP4" s="4"/>
+      <c r="AQ4" s="4"/>
+      <c r="AR4" s="4"/>
+      <c r="AS4" s="4"/>
+      <c r="AT4" s="4"/>
+      <c r="AU4" s="4"/>
+      <c r="AV4" s="4"/>
+      <c r="AW4" s="4"/>
+      <c r="AX4" s="4"/>
+      <c r="AY4" s="4"/>
+    </row>
+    <row r="5" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3">
+        <v>31</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="4"/>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="4"/>
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="4"/>
+      <c r="AL5" s="4"/>
+      <c r="AM5" s="4"/>
+      <c r="AN5" s="4"/>
+      <c r="AO5" s="4"/>
+      <c r="AP5" s="4"/>
+      <c r="AQ5" s="4"/>
+      <c r="AR5" s="4"/>
+      <c r="AS5" s="4"/>
+      <c r="AT5" s="4"/>
+      <c r="AU5" s="4"/>
+      <c r="AV5" s="4"/>
+      <c r="AW5" s="4"/>
+      <c r="AX5" s="4"/>
+      <c r="AY5" s="4"/>
+    </row>
+    <row r="6" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="3">
+        <v>25</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="4"/>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4"/>
+      <c r="AK6" s="4"/>
+      <c r="AL6" s="4"/>
+      <c r="AM6" s="4"/>
+      <c r="AN6" s="4"/>
+      <c r="AO6" s="4"/>
+      <c r="AP6" s="4"/>
+      <c r="AQ6" s="4"/>
+      <c r="AR6" s="4"/>
+      <c r="AS6" s="4"/>
+      <c r="AT6" s="4"/>
+      <c r="AU6" s="4"/>
+      <c r="AV6" s="4"/>
+      <c r="AW6" s="4"/>
+      <c r="AX6" s="4"/>
+      <c r="AY6" s="4"/>
+    </row>
+    <row r="7" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="3">
+        <v>34</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="3">
+        <v>26</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="3">
+        <v>38</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="3">
+        <v>12</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="3">
+        <v>3</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="3">
+        <v>8</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="3">
+        <v>18</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="3">
+        <v>20</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="3">
+        <v>9</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="3">
+        <v>28</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="3">
+        <v>13</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="3">
+        <v>11</v>
+      </c>
+      <c r="C19" s="4">
+        <v>13.6</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
+        <v>86.1</v>
+      </c>
+      <c r="F19" s="4">
+        <v>16</v>
+      </c>
+      <c r="G19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="3">
+        <v>50</v>
+      </c>
+      <c r="C20" s="4">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="D20" s="4">
+        <v>3</v>
+      </c>
+      <c r="E20" s="4">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="F20" s="4">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="3">
+        <v>22</v>
+      </c>
+      <c r="C21" s="4">
+        <v>20.3</v>
+      </c>
+      <c r="D21" s="4">
+        <v>6</v>
+      </c>
+      <c r="E21" s="4">
+        <v>79.3</v>
+      </c>
+      <c r="F21" s="4">
+        <v>27</v>
+      </c>
+      <c r="G21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="3">
+        <v>2</v>
+      </c>
+      <c r="C22" s="4">
+        <v>21.2</v>
+      </c>
+      <c r="D22" s="4">
+        <v>5</v>
+      </c>
+      <c r="E22" s="4">
+        <v>78</v>
+      </c>
+      <c r="F22" s="4">
+        <v>18</v>
+      </c>
+      <c r="G22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="3">
+        <v>32</v>
+      </c>
+      <c r="C23" s="4">
+        <v>27.1</v>
+      </c>
+      <c r="D23" s="4">
+        <v>27</v>
+      </c>
+      <c r="E23" s="4">
+        <v>72.7</v>
+      </c>
+      <c r="F23" s="4">
+        <v>74</v>
+      </c>
+      <c r="G23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="3">
+        <v>49</v>
+      </c>
+      <c r="C24" s="4">
+        <v>30</v>
+      </c>
+      <c r="D24" s="4">
+        <v>8</v>
+      </c>
+      <c r="E24" s="4">
+        <v>69.8</v>
+      </c>
+      <c r="F24" s="4">
+        <v>17</v>
+      </c>
+      <c r="G24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="3">
+        <v>30</v>
+      </c>
+      <c r="C25" s="4">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="D25" s="4">
+        <v>10</v>
+      </c>
+      <c r="E25" s="4">
+        <v>67.7</v>
+      </c>
+      <c r="F25" s="4">
+        <v>23</v>
+      </c>
+      <c r="G25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="3">
+        <v>5</v>
+      </c>
+      <c r="C26" s="4">
+        <v>35.5</v>
+      </c>
+      <c r="D26" s="4">
+        <v>9</v>
+      </c>
+      <c r="E26" s="4">
+        <v>64.3</v>
+      </c>
+      <c r="F26" s="4">
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="3">
+        <v>10</v>
+      </c>
+      <c r="C27" s="4">
+        <v>38</v>
+      </c>
+      <c r="D27" s="4">
+        <v>9</v>
+      </c>
+      <c r="E27" s="4">
+        <v>60.4</v>
+      </c>
+      <c r="F27" s="4">
+        <v>15</v>
+      </c>
+      <c r="G27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="3">
+        <v>4</v>
+      </c>
+      <c r="C28" s="4">
+        <v>38.4</v>
+      </c>
+      <c r="D28" s="4">
+        <v>31</v>
+      </c>
+      <c r="E28" s="4">
+        <v>61.6</v>
+      </c>
+      <c r="F28" s="4">
+        <v>46</v>
+      </c>
+      <c r="G28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="3">
+        <v>27</v>
+      </c>
+      <c r="C29" s="4">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="D29" s="4">
+        <v>28</v>
+      </c>
+      <c r="E29" s="4">
+        <v>59</v>
+      </c>
+      <c r="F29" s="4">
+        <v>38</v>
+      </c>
+      <c r="G29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="3">
+        <v>37</v>
+      </c>
+      <c r="C30" s="4">
+        <v>41.5</v>
+      </c>
+      <c r="D30" s="4">
+        <v>17</v>
+      </c>
+      <c r="E30" s="4">
+        <v>51.9</v>
+      </c>
+      <c r="F30" s="4">
+        <v>21</v>
+      </c>
+      <c r="G30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="3">
+        <v>15</v>
+      </c>
+      <c r="C31" s="4">
+        <v>42.9</v>
+      </c>
+      <c r="D31" s="4">
+        <v>10</v>
+      </c>
+      <c r="E31" s="4">
+        <v>57.1</v>
+      </c>
+      <c r="F31" s="4">
+        <v>15</v>
+      </c>
+      <c r="G31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="3">
+        <v>7</v>
+      </c>
+      <c r="C32" s="4">
+        <v>43.1</v>
+      </c>
+      <c r="D32" s="4">
+        <v>38</v>
+      </c>
+      <c r="E32" s="4">
+        <v>56.6</v>
+      </c>
+      <c r="F32" s="4">
+        <v>48</v>
+      </c>
+      <c r="G32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="3">
+        <v>6</v>
+      </c>
+      <c r="C33" s="4">
+        <v>48.3</v>
+      </c>
+      <c r="D33" s="4">
+        <v>63</v>
+      </c>
+      <c r="E33" s="4">
+        <v>49.8</v>
+      </c>
+      <c r="F33" s="4">
+        <v>67</v>
+      </c>
+      <c r="G33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" s="3">
+        <v>29</v>
+      </c>
+      <c r="C34" s="4">
+        <v>49.6</v>
+      </c>
+      <c r="D34" s="4">
+        <v>34</v>
+      </c>
+      <c r="E34" s="4">
+        <v>49.4</v>
+      </c>
+      <c r="F34" s="4">
+        <v>34</v>
+      </c>
+      <c r="G34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="3">
+        <v>14</v>
+      </c>
+      <c r="C35" s="4">
+        <v>49.9</v>
+      </c>
+      <c r="D35" s="4">
+        <v>23</v>
+      </c>
+      <c r="E35" s="4">
+        <v>49.6</v>
+      </c>
+      <c r="F35" s="4">
+        <v>21</v>
+      </c>
+      <c r="G35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="3">
+        <v>16</v>
+      </c>
+      <c r="C36" s="4">
+        <v>50.1</v>
+      </c>
+      <c r="D36" s="4">
+        <v>46</v>
+      </c>
+      <c r="E36" s="4">
+        <v>48.7</v>
+      </c>
+      <c r="F36" s="4">
+        <v>45</v>
+      </c>
+      <c r="G36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="3">
+        <v>17</v>
+      </c>
+      <c r="C37" s="4">
+        <v>50.5</v>
+      </c>
+      <c r="D37" s="4">
+        <v>76</v>
+      </c>
+      <c r="E37" s="4">
+        <v>48.7</v>
+      </c>
+      <c r="F37" s="4">
+        <v>73</v>
+      </c>
+      <c r="G37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" s="3">
+        <v>23</v>
+      </c>
+      <c r="C38" s="4">
+        <v>52.6</v>
+      </c>
+      <c r="D38" s="4">
+        <v>20</v>
+      </c>
+      <c r="E38" s="4">
+        <v>47.3</v>
+      </c>
+      <c r="F38" s="4">
+        <v>15</v>
+      </c>
+      <c r="G38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="3">
+        <v>40</v>
+      </c>
+      <c r="C39" s="4">
+        <v>54.6</v>
+      </c>
+      <c r="D39" s="4">
+        <v>59</v>
+      </c>
+      <c r="E39" s="4">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="F39" s="4">
+        <v>45</v>
+      </c>
+      <c r="G39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" s="3">
+        <v>24</v>
+      </c>
+      <c r="C40" s="4">
+        <v>56.5</v>
+      </c>
+      <c r="D40" s="4">
+        <v>81</v>
+      </c>
+      <c r="E40" s="4">
+        <v>42.7</v>
+      </c>
+      <c r="F40" s="4">
+        <v>62</v>
+      </c>
+      <c r="G40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="3">
+        <v>36</v>
+      </c>
+      <c r="C41" s="4">
+        <v>57.6</v>
+      </c>
+      <c r="D41" s="4">
+        <v>42</v>
+      </c>
+      <c r="E41" s="4">
+        <v>39.9</v>
+      </c>
+      <c r="F41" s="4">
+        <v>33</v>
+      </c>
+      <c r="G41" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" s="3">
+        <v>33</v>
+      </c>
+      <c r="C42" s="4">
+        <v>64.3</v>
+      </c>
+      <c r="D42" s="4">
+        <v>62</v>
+      </c>
+      <c r="E42" s="4">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="F42" s="4">
+        <v>33</v>
+      </c>
+      <c r="G42" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" s="3">
+        <v>48</v>
+      </c>
+      <c r="C43" s="4">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="D43" s="4">
+        <v>141</v>
+      </c>
+      <c r="E43" s="4">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="F43" s="4">
+        <v>73</v>
+      </c>
+      <c r="G43" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="3">
+        <v>41</v>
+      </c>
+      <c r="C44" s="4">
+        <v>65.2</v>
+      </c>
+      <c r="D44" s="4">
+        <v>147</v>
+      </c>
+      <c r="E44" s="4">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="F44" s="4">
+        <v>75</v>
+      </c>
+      <c r="G44" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="3">
+        <v>39</v>
+      </c>
+      <c r="C45" s="4">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="D45" s="4">
+        <v>44</v>
+      </c>
+      <c r="E45" s="4">
+        <v>32.4</v>
+      </c>
+      <c r="F45" s="4">
+        <v>23</v>
+      </c>
+      <c r="G45" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="3">
+        <v>42</v>
+      </c>
+      <c r="C46" s="4">
+        <v>66.3</v>
+      </c>
+      <c r="D46" s="4">
+        <v>22</v>
+      </c>
+      <c r="E46" s="4">
+        <v>29.7</v>
+      </c>
+      <c r="F46" s="4">
+        <v>10</v>
+      </c>
+      <c r="G46" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" s="3">
+        <v>47</v>
+      </c>
+      <c r="C47" s="4">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="D47" s="4">
+        <v>37</v>
+      </c>
+      <c r="E47" s="4">
+        <v>23.2</v>
+      </c>
+      <c r="F47" s="4">
+        <v>14</v>
+      </c>
+      <c r="G47" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="3">
+        <v>45</v>
+      </c>
+      <c r="C48" s="4">
+        <v>71.3</v>
+      </c>
+      <c r="D48" s="4">
+        <v>73</v>
+      </c>
+      <c r="E48" s="4">
+        <v>28.2</v>
+      </c>
+      <c r="F48" s="4">
+        <v>29</v>
+      </c>
+      <c r="G48" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B49" s="3">
+        <v>43</v>
+      </c>
+      <c r="C49" s="4">
+        <v>73.5</v>
+      </c>
+      <c r="D49" s="4">
+        <v>39</v>
+      </c>
+      <c r="E49" s="4">
+        <v>26</v>
+      </c>
+      <c r="F49" s="4">
+        <v>14</v>
+      </c>
+      <c r="G49" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" s="3">
+        <v>44</v>
+      </c>
+      <c r="C50" s="4">
+        <v>77.8</v>
+      </c>
+      <c r="D50" s="4">
+        <v>44</v>
+      </c>
+      <c r="E50" s="4">
+        <v>19.2</v>
+      </c>
+      <c r="F50" s="4">
+        <v>9</v>
+      </c>
+      <c r="G50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51" s="3">
+        <v>46</v>
+      </c>
+      <c r="C51" s="4">
+        <v>82.6</v>
+      </c>
+      <c r="D51" s="4">
+        <v>32</v>
+      </c>
+      <c r="E51" s="4">
+        <v>16.5</v>
+      </c>
+      <c r="F51" s="4">
+        <v>4</v>
+      </c>
+      <c r="G51" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:F51">
+    <sortCondition ref="C1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AY6"/>
+  <sheetViews>
+    <sheetView topLeftCell="AJ1" workbookViewId="0">
+      <selection sqref="A1:AY2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="3">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3">
+        <v>21</v>
+      </c>
+      <c r="D1" s="3">
+        <v>19</v>
+      </c>
+      <c r="E1" s="3">
+        <v>31</v>
+      </c>
+      <c r="F1" s="3">
+        <v>25</v>
+      </c>
+      <c r="G1" s="3">
+        <v>34</v>
+      </c>
+      <c r="H1" s="3">
+        <v>1</v>
+      </c>
+      <c r="I1" s="3">
+        <v>26</v>
+      </c>
+      <c r="J1" s="3">
+        <v>38</v>
+      </c>
+      <c r="K1" s="3">
+        <v>12</v>
+      </c>
+      <c r="L1" s="3">
+        <v>3</v>
+      </c>
+      <c r="M1" s="3">
+        <v>8</v>
+      </c>
+      <c r="N1" s="3">
+        <v>18</v>
+      </c>
+      <c r="O1" s="3">
+        <v>20</v>
+      </c>
+      <c r="P1" s="3">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="3">
+        <v>28</v>
+      </c>
+      <c r="R1" s="3">
+        <v>13</v>
+      </c>
+      <c r="S1" s="3">
+        <v>11</v>
+      </c>
+      <c r="T1" s="3">
+        <v>50</v>
+      </c>
+      <c r="U1" s="3">
+        <v>22</v>
+      </c>
+      <c r="V1" s="3">
+        <v>2</v>
+      </c>
+      <c r="W1" s="3">
+        <v>32</v>
+      </c>
+      <c r="X1" s="3">
+        <v>49</v>
+      </c>
+      <c r="Y1" s="3">
+        <v>30</v>
+      </c>
+      <c r="Z1" s="3">
+        <v>5</v>
+      </c>
+      <c r="AA1" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB1" s="3">
+        <v>4</v>
+      </c>
+      <c r="AC1" s="3">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="3">
+        <v>37</v>
+      </c>
+      <c r="AE1" s="3">
+        <v>15</v>
+      </c>
+      <c r="AF1" s="3">
+        <v>7</v>
+      </c>
+      <c r="AG1" s="3">
+        <v>6</v>
+      </c>
+      <c r="AH1" s="3">
+        <v>29</v>
+      </c>
+      <c r="AI1" s="3">
+        <v>14</v>
+      </c>
+      <c r="AJ1" s="3">
+        <v>16</v>
+      </c>
+      <c r="AK1" s="3">
+        <v>17</v>
+      </c>
+      <c r="AL1" s="3">
+        <v>23</v>
+      </c>
+      <c r="AM1" s="3">
+        <v>40</v>
+      </c>
+      <c r="AN1" s="3">
+        <v>24</v>
+      </c>
+      <c r="AO1" s="3">
+        <v>36</v>
+      </c>
+      <c r="AP1" s="3">
+        <v>33</v>
+      </c>
+      <c r="AQ1" s="3">
+        <v>48</v>
+      </c>
+      <c r="AR1" s="3">
+        <v>41</v>
+      </c>
+      <c r="AS1" s="3">
+        <v>39</v>
+      </c>
+      <c r="AT1" s="3">
+        <v>42</v>
+      </c>
+      <c r="AU1" s="3">
+        <v>47</v>
+      </c>
+      <c r="AV1" s="3">
+        <v>45</v>
+      </c>
+      <c r="AW1" s="3">
+        <v>43</v>
+      </c>
+      <c r="AX1" s="3">
+        <v>44</v>
+      </c>
+      <c r="AY1" s="3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="S2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T2" t="s">
+        <v>61</v>
+      </c>
+      <c r="U2" t="s">
+        <v>61</v>
+      </c>
+      <c r="V2" t="s">
+        <v>61</v>
+      </c>
+      <c r="W2" t="s">
+        <v>61</v>
+      </c>
+      <c r="X2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -3440,24 +5070,12 @@
       <c r="AY3" s="4"/>
     </row>
     <row r="4" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3">
-        <v>19</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0</v>
-      </c>
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -3505,24 +5123,12 @@
       <c r="AY4" s="4"/>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="3">
-        <v>31</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -3570,24 +5176,12 @@
       <c r="AY5" s="4"/>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="3">
-        <v>25</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -3634,910 +5228,430 @@
       <c r="AX6" s="4"/>
       <c r="AY6" s="4"/>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>21</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
         <v>19</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B4" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>31</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>25</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
         <v>34</v>
       </c>
-      <c r="C7" s="4">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="B7" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>26</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>38</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>12</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>8</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>18</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>20</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>9</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>28</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>13</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>50</v>
+      </c>
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>32</v>
+      </c>
+      <c r="B23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>49</v>
+      </c>
+      <c r="B24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>30</v>
+      </c>
+      <c r="B25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
         <v>27</v>
       </c>
-      <c r="B8" s="3">
-        <v>1</v>
-      </c>
-      <c r="C8" s="4">
-        <v>0</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="3">
-        <v>26</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="3">
-        <v>38</v>
-      </c>
-      <c r="C10" s="4">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="B29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>37</v>
+      </c>
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>15</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>6</v>
+      </c>
+      <c r="B33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>29</v>
+      </c>
+      <c r="B34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>14</v>
+      </c>
+      <c r="B35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>16</v>
+      </c>
+      <c r="B36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>17</v>
+      </c>
+      <c r="B37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>23</v>
+      </c>
+      <c r="B38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
+        <v>40</v>
+      </c>
+      <c r="B39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
+        <v>24</v>
+      </c>
+      <c r="B40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
+        <v>36</v>
+      </c>
+      <c r="B41" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
         <v>33</v>
       </c>
-      <c r="B11" s="3">
-        <v>12</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0</v>
-      </c>
-      <c r="F11" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="3">
-        <v>3</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0</v>
-      </c>
-      <c r="F12" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="3">
-        <v>8</v>
-      </c>
-      <c r="C13" s="4">
-        <v>0</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0</v>
-      </c>
-      <c r="F13" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="B42" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
+        <v>48</v>
+      </c>
+      <c r="B43" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
+        <v>41</v>
+      </c>
+      <c r="B44" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
         <v>39</v>
       </c>
-      <c r="B14" s="3">
-        <v>18</v>
-      </c>
-      <c r="C14" s="4">
-        <v>0</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0</v>
-      </c>
-      <c r="E14" s="4">
-        <v>0</v>
-      </c>
-      <c r="F14" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="3">
-        <v>20</v>
-      </c>
-      <c r="C15" s="4">
-        <v>0</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0</v>
-      </c>
-      <c r="F15" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+      <c r="B45" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
         <v>42</v>
       </c>
-      <c r="B16" s="3">
-        <v>9</v>
-      </c>
-      <c r="C16" s="4">
-        <v>0</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0</v>
-      </c>
-      <c r="E16" s="4">
-        <v>0</v>
-      </c>
-      <c r="F16" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="3">
-        <v>28</v>
-      </c>
-      <c r="C17" s="4">
-        <v>0</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0</v>
-      </c>
-      <c r="E17" s="4">
-        <v>0</v>
-      </c>
-      <c r="F17" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="3">
-        <v>13</v>
-      </c>
-      <c r="C18" s="4">
-        <v>0</v>
-      </c>
-      <c r="D18" s="4">
-        <v>0</v>
-      </c>
-      <c r="E18" s="4">
-        <v>0</v>
-      </c>
-      <c r="F18" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+      <c r="B46" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
+        <v>47</v>
+      </c>
+      <c r="B47" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
+        <v>45</v>
+      </c>
+      <c r="B48" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
+        <v>43</v>
+      </c>
+      <c r="B49" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
+        <v>44</v>
+      </c>
+      <c r="B50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
         <v>46</v>
       </c>
-      <c r="B19" s="3">
-        <v>11</v>
-      </c>
-      <c r="C19" s="4">
-        <v>13.6</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0</v>
-      </c>
-      <c r="E19" s="4">
-        <v>86.1</v>
-      </c>
-      <c r="F19" s="4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="3">
-        <v>50</v>
-      </c>
-      <c r="C20" s="4">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="D20" s="4">
-        <v>3</v>
-      </c>
-      <c r="E20" s="4">
-        <v>81.599999999999994</v>
-      </c>
-      <c r="F20" s="4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="3">
-        <v>22</v>
-      </c>
-      <c r="C21" s="4">
-        <v>20.3</v>
-      </c>
-      <c r="D21" s="4">
-        <v>6</v>
-      </c>
-      <c r="E21" s="4">
-        <v>79.3</v>
-      </c>
-      <c r="F21" s="4">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="3">
-        <v>2</v>
-      </c>
-      <c r="C22" s="4">
-        <v>21.2</v>
-      </c>
-      <c r="D22" s="4">
-        <v>5</v>
-      </c>
-      <c r="E22" s="4">
-        <v>78</v>
-      </c>
-      <c r="F22" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="3">
-        <v>32</v>
-      </c>
-      <c r="C23" s="4">
-        <v>27.1</v>
-      </c>
-      <c r="D23" s="4">
-        <v>27</v>
-      </c>
-      <c r="E23" s="4">
-        <v>72.7</v>
-      </c>
-      <c r="F23" s="4">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="3">
-        <v>49</v>
-      </c>
-      <c r="C24" s="4">
-        <v>30</v>
-      </c>
-      <c r="D24" s="4">
-        <v>8</v>
-      </c>
-      <c r="E24" s="4">
-        <v>69.8</v>
-      </c>
-      <c r="F24" s="4">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="3">
-        <v>30</v>
-      </c>
-      <c r="C25" s="4">
-        <v>32.299999999999997</v>
-      </c>
-      <c r="D25" s="4">
-        <v>10</v>
-      </c>
-      <c r="E25" s="4">
-        <v>67.7</v>
-      </c>
-      <c r="F25" s="4">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="3">
-        <v>5</v>
-      </c>
-      <c r="C26" s="4">
-        <v>35.5</v>
-      </c>
-      <c r="D26" s="4">
-        <v>9</v>
-      </c>
-      <c r="E26" s="4">
-        <v>64.3</v>
-      </c>
-      <c r="F26" s="4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="3">
-        <v>10</v>
-      </c>
-      <c r="C27" s="4">
-        <v>38</v>
-      </c>
-      <c r="D27" s="4">
-        <v>9</v>
-      </c>
-      <c r="E27" s="4">
-        <v>60.4</v>
-      </c>
-      <c r="F27" s="4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="3">
-        <v>4</v>
-      </c>
-      <c r="C28" s="4">
-        <v>38.4</v>
-      </c>
-      <c r="D28" s="4">
-        <v>31</v>
-      </c>
-      <c r="E28" s="4">
-        <v>61.6</v>
-      </c>
-      <c r="F28" s="4">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" s="3">
-        <v>27</v>
-      </c>
-      <c r="C29" s="4">
-        <v>40.299999999999997</v>
-      </c>
-      <c r="D29" s="4">
-        <v>28</v>
-      </c>
-      <c r="E29" s="4">
-        <v>59</v>
-      </c>
-      <c r="F29" s="4">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="3">
-        <v>37</v>
-      </c>
-      <c r="C30" s="4">
-        <v>41.5</v>
-      </c>
-      <c r="D30" s="4">
-        <v>17</v>
-      </c>
-      <c r="E30" s="4">
-        <v>51.9</v>
-      </c>
-      <c r="F30" s="4">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="3">
-        <v>15</v>
-      </c>
-      <c r="C31" s="4">
-        <v>42.9</v>
-      </c>
-      <c r="D31" s="4">
-        <v>10</v>
-      </c>
-      <c r="E31" s="4">
-        <v>57.1</v>
-      </c>
-      <c r="F31" s="4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B32" s="3">
-        <v>7</v>
-      </c>
-      <c r="C32" s="4">
-        <v>43.1</v>
-      </c>
-      <c r="D32" s="4">
-        <v>38</v>
-      </c>
-      <c r="E32" s="4">
-        <v>56.6</v>
-      </c>
-      <c r="F32" s="4">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B33" s="3">
-        <v>6</v>
-      </c>
-      <c r="C33" s="4">
-        <v>48.3</v>
-      </c>
-      <c r="D33" s="4">
-        <v>63</v>
-      </c>
-      <c r="E33" s="4">
-        <v>49.8</v>
-      </c>
-      <c r="F33" s="4">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B34" s="3">
-        <v>29</v>
-      </c>
-      <c r="C34" s="4">
-        <v>49.6</v>
-      </c>
-      <c r="D34" s="4">
-        <v>34</v>
-      </c>
-      <c r="E34" s="4">
-        <v>49.4</v>
-      </c>
-      <c r="F34" s="4">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B35" s="3">
-        <v>14</v>
-      </c>
-      <c r="C35" s="4">
-        <v>49.9</v>
-      </c>
-      <c r="D35" s="4">
-        <v>23</v>
-      </c>
-      <c r="E35" s="4">
-        <v>49.6</v>
-      </c>
-      <c r="F35" s="4">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B36" s="3">
-        <v>16</v>
-      </c>
-      <c r="C36" s="4">
-        <v>50.1</v>
-      </c>
-      <c r="D36" s="4">
-        <v>46</v>
-      </c>
-      <c r="E36" s="4">
-        <v>48.7</v>
-      </c>
-      <c r="F36" s="4">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B37" s="3">
-        <v>17</v>
-      </c>
-      <c r="C37" s="4">
-        <v>50.5</v>
-      </c>
-      <c r="D37" s="4">
-        <v>76</v>
-      </c>
-      <c r="E37" s="4">
-        <v>48.7</v>
-      </c>
-      <c r="F37" s="4">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B38" s="3">
-        <v>23</v>
-      </c>
-      <c r="C38" s="4">
-        <v>52.6</v>
-      </c>
-      <c r="D38" s="4">
-        <v>20</v>
-      </c>
-      <c r="E38" s="4">
-        <v>47.3</v>
-      </c>
-      <c r="F38" s="4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B39" s="3">
-        <v>40</v>
-      </c>
-      <c r="C39" s="4">
-        <v>54.6</v>
-      </c>
-      <c r="D39" s="4">
-        <v>59</v>
-      </c>
-      <c r="E39" s="4">
-        <v>40.799999999999997</v>
-      </c>
-      <c r="F39" s="4">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B40" s="3">
-        <v>24</v>
-      </c>
-      <c r="C40" s="4">
-        <v>56.5</v>
-      </c>
-      <c r="D40" s="4">
-        <v>81</v>
-      </c>
-      <c r="E40" s="4">
-        <v>42.7</v>
-      </c>
-      <c r="F40" s="4">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41" s="3">
-        <v>36</v>
-      </c>
-      <c r="C41" s="4">
-        <v>57.6</v>
-      </c>
-      <c r="D41" s="4">
-        <v>42</v>
-      </c>
-      <c r="E41" s="4">
-        <v>39.9</v>
-      </c>
-      <c r="F41" s="4">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B42" s="3">
-        <v>33</v>
-      </c>
-      <c r="C42" s="4">
-        <v>64.3</v>
-      </c>
-      <c r="D42" s="4">
-        <v>62</v>
-      </c>
-      <c r="E42" s="4">
-        <v>35.200000000000003</v>
-      </c>
-      <c r="F42" s="4">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B43" s="3">
-        <v>48</v>
-      </c>
-      <c r="C43" s="4">
-        <v>64.400000000000006</v>
-      </c>
-      <c r="D43" s="4">
-        <v>141</v>
-      </c>
-      <c r="E43" s="4">
-        <v>33.299999999999997</v>
-      </c>
-      <c r="F43" s="4">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" s="3">
-        <v>41</v>
-      </c>
-      <c r="C44" s="4">
-        <v>65.2</v>
-      </c>
-      <c r="D44" s="4">
-        <v>147</v>
-      </c>
-      <c r="E44" s="4">
-        <v>33.200000000000003</v>
-      </c>
-      <c r="F44" s="4">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45" s="3">
-        <v>39</v>
-      </c>
-      <c r="C45" s="4">
-        <v>66.099999999999994</v>
-      </c>
-      <c r="D45" s="4">
-        <v>44</v>
-      </c>
-      <c r="E45" s="4">
-        <v>32.4</v>
-      </c>
-      <c r="F45" s="4">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B46" s="3">
-        <v>42</v>
-      </c>
-      <c r="C46" s="4">
-        <v>66.3</v>
-      </c>
-      <c r="D46" s="4">
-        <v>22</v>
-      </c>
-      <c r="E46" s="4">
-        <v>29.7</v>
-      </c>
-      <c r="F46" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B47" s="3">
-        <v>47</v>
-      </c>
-      <c r="C47" s="4">
-        <v>71.099999999999994</v>
-      </c>
-      <c r="D47" s="4">
-        <v>37</v>
-      </c>
-      <c r="E47" s="4">
-        <v>23.2</v>
-      </c>
-      <c r="F47" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B48" s="3">
-        <v>45</v>
-      </c>
-      <c r="C48" s="4">
-        <v>71.3</v>
-      </c>
-      <c r="D48" s="4">
-        <v>73</v>
-      </c>
-      <c r="E48" s="4">
-        <v>28.2</v>
-      </c>
-      <c r="F48" s="4">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B49" s="3">
-        <v>43</v>
-      </c>
-      <c r="C49" s="4">
-        <v>73.5</v>
-      </c>
-      <c r="D49" s="4">
-        <v>39</v>
-      </c>
-      <c r="E49" s="4">
-        <v>26</v>
-      </c>
-      <c r="F49" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B50" s="3">
-        <v>44</v>
-      </c>
-      <c r="C50" s="4">
-        <v>77.8</v>
-      </c>
-      <c r="D50" s="4">
-        <v>44</v>
-      </c>
-      <c r="E50" s="4">
-        <v>19.2</v>
-      </c>
-      <c r="F50" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B51" s="3">
-        <v>46</v>
-      </c>
-      <c r="C51" s="4">
-        <v>82.6</v>
-      </c>
-      <c r="D51" s="4">
-        <v>32</v>
-      </c>
-      <c r="E51" s="4">
-        <v>16.5</v>
-      </c>
-      <c r="F51" s="4">
-        <v>4</v>
+      <c r="B51" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:F51">
-    <sortCondition ref="C1"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>